--- a/applications/Brazil/Fortaleza_validation.xlsx
+++ b/applications/Brazil/Fortaleza_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>18645</v>
+        <v>18608</v>
       </c>
       <c r="B3">
-        <v>22488</v>
+        <v>22197</v>
       </c>
       <c r="C3">
-        <v>25869</v>
+        <v>25680</v>
       </c>
       <c r="D3">
-        <v>38804</v>
+        <v>38936</v>
       </c>
       <c r="I3">
-        <v>1330</v>
+        <v>1257</v>
       </c>
       <c r="J3">
-        <v>1755</v>
+        <v>1601</v>
       </c>
       <c r="K3">
-        <v>2181</v>
+        <v>2041</v>
       </c>
       <c r="L3">
-        <v>3314</v>
+        <v>3688</v>
       </c>
     </row>
   </sheetData>
